--- a/MIR3502/MIR3502管脚定义.xlsx
+++ b/MIR3502/MIR3502管脚定义.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="管脚定义" sheetId="1" r:id="rId1"/>
     <sheet name="端口数量" sheetId="2" r:id="rId2"/>
+    <sheet name="CAN通信协议" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="250">
   <si>
     <t>IMR3502 插座C</t>
   </si>
@@ -580,6 +581,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>IMR3502</t>
     </r>
     <r>
@@ -652,16 +658,289 @@
   <si>
     <t>累计：</t>
   </si>
+  <si>
+    <t>MIR3502 CAN总线协议（用于EtherCAT的热备用通道）</t>
+  </si>
+  <si>
+    <t>上行：</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>ID（基本帧）</t>
+  </si>
+  <si>
+    <t>byte0</t>
+  </si>
+  <si>
+    <t>byte1</t>
+  </si>
+  <si>
+    <t>byte2</t>
+  </si>
+  <si>
+    <t>byte3</t>
+  </si>
+  <si>
+    <t>byte4</t>
+  </si>
+  <si>
+    <t>byte5</t>
+  </si>
+  <si>
+    <t>byte6</t>
+  </si>
+  <si>
+    <t>byte7</t>
+  </si>
+  <si>
+    <t>AI00_L</t>
+  </si>
+  <si>
+    <t>AI00_H</t>
+  </si>
+  <si>
+    <t>AI01_L</t>
+  </si>
+  <si>
+    <t>AI01_H</t>
+  </si>
+  <si>
+    <t>AI02_L</t>
+  </si>
+  <si>
+    <t>AI02_H</t>
+  </si>
+  <si>
+    <t>AI03_L</t>
+  </si>
+  <si>
+    <t>AI03_H</t>
+  </si>
+  <si>
+    <t>AI04_L</t>
+  </si>
+  <si>
+    <t>AI04_H</t>
+  </si>
+  <si>
+    <t>AI05_L</t>
+  </si>
+  <si>
+    <t>AI05_H</t>
+  </si>
+  <si>
+    <t>AI06_L</t>
+  </si>
+  <si>
+    <t>AI06_H</t>
+  </si>
+  <si>
+    <t>AI07_L</t>
+  </si>
+  <si>
+    <t>AI07_H</t>
+  </si>
+  <si>
+    <t>AI08_L</t>
+  </si>
+  <si>
+    <t>AI08_H</t>
+  </si>
+  <si>
+    <t>AI09_L</t>
+  </si>
+  <si>
+    <t>AI09_H</t>
+  </si>
+  <si>
+    <t>AI10_L</t>
+  </si>
+  <si>
+    <t>AI10_H</t>
+  </si>
+  <si>
+    <t>AI11_L</t>
+  </si>
+  <si>
+    <t>AI11_H</t>
+  </si>
+  <si>
+    <t>AI12_L</t>
+  </si>
+  <si>
+    <t>AI12_H</t>
+  </si>
+  <si>
+    <t>AI13_L</t>
+  </si>
+  <si>
+    <t>AI13_H</t>
+  </si>
+  <si>
+    <t>AI14_L</t>
+  </si>
+  <si>
+    <t>AI14_H</t>
+  </si>
+  <si>
+    <t>AI15_L</t>
+  </si>
+  <si>
+    <t>AI15_H</t>
+  </si>
+  <si>
+    <t>AI16_L</t>
+  </si>
+  <si>
+    <t>AI16_H</t>
+  </si>
+  <si>
+    <t>AI17_L</t>
+  </si>
+  <si>
+    <t>AI17_H</t>
+  </si>
+  <si>
+    <t>AI18_L</t>
+  </si>
+  <si>
+    <t>AI18_H</t>
+  </si>
+  <si>
+    <t>AI19_L</t>
+  </si>
+  <si>
+    <t>AI19_H</t>
+  </si>
+  <si>
+    <t>AI20_L</t>
+  </si>
+  <si>
+    <t>AI20_H</t>
+  </si>
+  <si>
+    <t>AI21_L</t>
+  </si>
+  <si>
+    <t>AI21_H</t>
+  </si>
+  <si>
+    <t>AI22_L</t>
+  </si>
+  <si>
+    <t>AI22_H</t>
+  </si>
+  <si>
+    <t>AI23_L</t>
+  </si>
+  <si>
+    <t>AI23_H</t>
+  </si>
+  <si>
+    <t>AI24_L</t>
+  </si>
+  <si>
+    <t>AI24_H</t>
+  </si>
+  <si>
+    <t>AI25_L</t>
+  </si>
+  <si>
+    <t>AI25_H</t>
+  </si>
+  <si>
+    <t>AI26_L</t>
+  </si>
+  <si>
+    <t>AI26_H</t>
+  </si>
+  <si>
+    <t>AI27_L</t>
+  </si>
+  <si>
+    <t>AI27_H</t>
+  </si>
+  <si>
+    <t>AI28_L</t>
+  </si>
+  <si>
+    <t>AI28_H</t>
+  </si>
+  <si>
+    <t>AI29_L</t>
+  </si>
+  <si>
+    <t>AI29_H</t>
+  </si>
+  <si>
+    <t>AI30_L</t>
+  </si>
+  <si>
+    <t>AI30_H</t>
+  </si>
+  <si>
+    <t>AI31_L</t>
+  </si>
+  <si>
+    <t>AI31_H</t>
+  </si>
+  <si>
+    <t>DI7~0</t>
+  </si>
+  <si>
+    <t>DI15~8</t>
+  </si>
+  <si>
+    <t>DI23~16</t>
+  </si>
+  <si>
+    <t>DI31~24</t>
+  </si>
+  <si>
+    <t>下行：</t>
+  </si>
+  <si>
+    <t>DO7~0</t>
+  </si>
+  <si>
+    <t>DO15~8</t>
+  </si>
+  <si>
+    <t>DO23~16</t>
+  </si>
+  <si>
+    <t>AI_Off</t>
+  </si>
+  <si>
+    <t>PWM00_L</t>
+  </si>
+  <si>
+    <t>PWM00_H</t>
+  </si>
+  <si>
+    <t>PWM01_L</t>
+  </si>
+  <si>
+    <t>PWM01_H</t>
+  </si>
+  <si>
+    <t>AI_Off：</t>
+  </si>
+  <si>
+    <t>每个位分别用于关闭300~307的发送</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -694,7 +973,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,7 +1039,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,30 +1060,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,8 +1084,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,56 +1115,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -846,7 +1125,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,13 +1179,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,49 +1245,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,49 +1299,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,48 +1317,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1049,13 +1334,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1076,6 +1376,17 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1098,6 +1409,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1116,41 +1442,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1162,6 +1453,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1195,6 +1495,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1203,10 +1514,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1215,180 +1526,201 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1715,882 +2047,882 @@
   <sheetPr/>
   <dimension ref="D1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="4:10">
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" ht="24.75" spans="4:10">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="4:10">
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="4:10">
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="4:10">
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="4:10">
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="4:10">
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="4:10">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="4:10">
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="4:10">
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:10">
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="4:10">
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="4:10">
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="4:10">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="4:10">
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="4:10">
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="4:10">
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="4:10">
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="9" t="s">
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="4:10">
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8" t="s">
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="8"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="4:10">
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="8"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="4:10">
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8" t="s">
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J25" s="8"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" ht="15" customHeight="1" spans="4:10">
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8" t="s">
+      <c r="I26" s="15"/>
+      <c r="J26" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="4:10">
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8" t="s">
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="4:10">
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8" t="s">
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="4:10">
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8" t="s">
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="4:10">
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8" t="s">
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="4:10">
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8" t="s">
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="4:10">
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8" t="s">
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="4:10">
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8" t="s">
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="4:10">
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8" t="s">
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="4:11">
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8" t="s">
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K35" s="17"/>
+      <c r="K35" s="24"/>
     </row>
     <row r="36" spans="4:11">
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8" t="s">
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="17"/>
+      <c r="K36" s="24"/>
     </row>
     <row r="37" spans="4:11">
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8" t="s">
+      <c r="I37" s="15"/>
+      <c r="J37" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K37" s="17"/>
+      <c r="K37" s="24"/>
     </row>
     <row r="38" spans="11:11">
-      <c r="K38" s="17"/>
+      <c r="K38" s="24"/>
     </row>
     <row r="39" spans="5:11">
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="H39" s="15" t="s">
+      <c r="F39" s="23"/>
+      <c r="H39" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="I39" s="16"/>
-      <c r="K39" s="17"/>
+      <c r="I39" s="23"/>
+      <c r="K39" s="24"/>
     </row>
     <row r="40" spans="5:11">
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="H40" s="9" t="s">
+      <c r="F40" s="15"/>
+      <c r="H40" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I40" s="8"/>
-      <c r="K40" s="17"/>
+      <c r="I40" s="15"/>
+      <c r="K40" s="24"/>
     </row>
     <row r="41" spans="5:9">
-      <c r="E41" s="6">
+      <c r="E41" s="13">
         <v>1</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="13">
         <v>1</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="42" spans="5:9">
-      <c r="E42" s="6">
+      <c r="E42" s="13">
         <v>2</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="13">
         <v>2</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="15" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="43" spans="5:9">
-      <c r="E43" s="6">
+      <c r="E43" s="13">
         <v>3</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="13">
         <v>3</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="15" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="44" spans="5:9">
-      <c r="E44" s="6">
+      <c r="E44" s="13">
         <v>4</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="13">
         <v>4</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="15" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="45" spans="5:9">
-      <c r="E45" s="6">
+      <c r="E45" s="13">
         <v>5</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="13">
         <v>5</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="15" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="46" spans="5:9">
-      <c r="E46" s="6">
+      <c r="E46" s="13">
         <v>6</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="13">
         <v>6</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="15" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="47" spans="5:9">
-      <c r="E47" s="6">
+      <c r="E47" s="13">
         <v>7</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="13">
         <v>7</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="15" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="48" spans="5:9">
-      <c r="E48" s="6">
+      <c r="E48" s="13">
         <v>8</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="13">
         <v>8</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68" spans="6:10">
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
     </row>
     <row r="69" spans="6:10">
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="18"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="25"/>
     </row>
     <row r="70" spans="6:10">
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
     </row>
     <row r="71" spans="6:10">
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
     </row>
     <row r="72" spans="6:10">
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
     </row>
     <row r="73" spans="6:10">
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
     </row>
     <row r="74" spans="6:10">
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
     </row>
     <row r="75" spans="6:10">
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
     </row>
     <row r="76" spans="6:10">
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
     </row>
     <row r="77" spans="6:10">
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2609,7 +2941,7 @@
   <dimension ref="B3:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2618,198 +2950,198 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="18" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="13">
         <v>6</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="14">
         <v>6</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="14">
         <v>6</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="8"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="13">
         <v>22</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="13">
         <v>22</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="13">
         <v>22</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13">
         <v>22</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="13">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="13">
         <v>2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="13">
         <v>2</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13">
         <v>2</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="14">
         <v>2</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="13">
         <v>2</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="13">
         <f t="shared" ref="C8:J8" si="0">SUM(C5:C7)</f>
         <v>30</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="13">
         <v>16</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="13">
         <v>12</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="13">
         <v>8</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="13">
         <v>0</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="13">
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="13">
         <f t="shared" ref="D10:J10" si="1">SUM(D8:D9)</f>
         <v>42</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="13">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="13">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="13">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="13">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="13">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2821,4 +3153,468 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="3:11">
+      <c r="C3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>300</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>301</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>302</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>303</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>304</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>305</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>306</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="2">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>307</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>308</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>400</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11">
+      <c r="E20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:K20"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>